--- a/script/ORCID_Deep_Scan_Results.xlsx
+++ b/script/ORCID_Deep_Scan_Results.xlsx
@@ -1890,11 +1890,7 @@
           <t>Petrov</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -3482,11 +3478,7 @@
           <t>Petrov</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -5074,11 +5066,7 @@
           <t>Petrov</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
